--- a/残業.xlsx
+++ b/残業.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,7 +748,7 @@
         <v>5.9333333333333336</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I4:I13" si="4">I7+H8</f>
+        <f t="shared" ref="I8:I13" si="4">I7+H8</f>
         <v>96.616666666666674</v>
       </c>
       <c r="J8" s="6">
@@ -835,14 +835,14 @@
         <v>42552</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -856,15 +856,15 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>21.966666666666665</v>
+        <v>26.933333333333334</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>153.55000000000001</v>
+        <v>158.51666666666668</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>40133.008333333331</v>
+        <v>48978.641666666677</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -885,7 +885,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>153.55000000000001</v>
+        <v>158.51666666666668</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="3"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>153.55000000000001</v>
+        <v>158.51666666666668</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="3"/>
@@ -925,7 +925,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="6">
         <f>SUM(J2:J13)</f>
-        <v>274882.5083333333</v>
+        <v>283728.14166666666</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="6">
-        <f>(D16+B16)*1704</f>
+        <f t="shared" ref="J16:J27" si="7">(D16+B16)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <f>(D17+B17)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="6">
-        <f>(D18+B18)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="6">
-        <f>(D19+B19)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="6">
-        <f>(D20+B20)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="6">
-        <f>(D21+B21)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <f>(D22+B22)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="6">
-        <f>(D23+B23)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="6">
-        <f>(D24+B24)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="6">
-        <f>(D25+B25)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="6">
-        <f>(D26+B26)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="6">
-        <f>(D27+B27)*1704</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1249,11 +1249,11 @@
         <v>43009</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:D40" si="7">C29/60</f>
+        <f t="shared" ref="D29:D40" si="8">C29/60</f>
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:G40" si="8">F29/60</f>
+        <f t="shared" ref="G29:G40" si="9">F29/60</f>
         <v>0</v>
       </c>
       <c r="H29" s="1">
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="6">
-        <f>(D29+B29)*1704</f>
+        <f t="shared" ref="J29:J40" si="10">(D29+B29)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -1274,11 +1274,11 @@
         <v>43040</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="6">
-        <f>(D30+B30)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1299,11 +1299,11 @@
         <v>43070</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="6">
-        <f>(D31+B31)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1324,11 +1324,11 @@
         <v>43101</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="6">
-        <f>(D32+B32)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1349,11 +1349,11 @@
         <v>43132</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H33" s="1">
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="6">
-        <f>(D33+B33)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1374,11 +1374,11 @@
         <v>43160</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H34" s="1">
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="6">
-        <f>(D34+B34)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1399,11 +1399,11 @@
         <v>43191</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H35" s="1">
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="6">
-        <f>(D35+B35)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1424,11 +1424,11 @@
         <v>43221</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H36" s="1">
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="6">
-        <f>(D36+B36)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1449,11 +1449,11 @@
         <v>43252</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H37" s="1">
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="6">
-        <f>(D37+B37)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1474,11 +1474,11 @@
         <v>43282</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H38" s="1">
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="6">
-        <f>(D38+B38)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1499,11 +1499,11 @@
         <v>43313</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H39" s="1">
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="6">
-        <f>(D39+B39)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1524,11 +1524,11 @@
         <v>43344</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H40" s="1">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="6">
-        <f>(D40+B40)*1704</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1557,11 +1557,11 @@
         <v>43374</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ref="D42:D53" si="9">C42/60</f>
+        <f t="shared" ref="D42:D53" si="11">C42/60</f>
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" ref="G42:G53" si="10">F42/60</f>
+        <f t="shared" ref="G42:G53" si="12">F42/60</f>
         <v>0</v>
       </c>
       <c r="H42" s="1">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="6">
-        <f>(D42+B42)*1704</f>
+        <f t="shared" ref="J42:J53" si="13">(D42+B42)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -1582,11 +1582,11 @@
         <v>43405</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H43" s="1">
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="6">
-        <f>(D43+B43)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1607,11 +1607,11 @@
         <v>43435</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H44" s="1">
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="6">
-        <f>(D44+B44)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1632,11 +1632,11 @@
         <v>43466</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H45" s="1">
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="6">
-        <f>(D45+B45)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1657,11 +1657,11 @@
         <v>43497</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H46" s="1">
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="6">
-        <f>(D46+B46)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1682,11 +1682,11 @@
         <v>43525</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H47" s="1">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="6">
-        <f>(D47+B47)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1707,11 +1707,11 @@
         <v>43556</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H48" s="1">
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="6">
-        <f>(D48+B48)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1732,11 +1732,11 @@
         <v>43586</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H49" s="1">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="6">
-        <f>(D49+B49)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1757,11 +1757,11 @@
         <v>43617</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H50" s="1">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="6">
-        <f>(D50+B50)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1782,11 +1782,11 @@
         <v>43647</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H51" s="1">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="6">
-        <f>(D51+B51)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1807,11 +1807,11 @@
         <v>43678</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H52" s="1">
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="6">
-        <f>(D52+B52)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1832,11 +1832,11 @@
         <v>43709</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H53" s="1">
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="6">
-        <f>(D53+B53)*1704</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1865,15 +1865,15 @@
         <v>43739</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" ref="D55:D86" si="11">C55/60</f>
+        <f t="shared" ref="D55:D86" si="14">C55/60</f>
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" ref="G55:G118" si="12">F55/60</f>
+        <f t="shared" ref="G55:G118" si="15">F55/60</f>
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" ref="H55:H109" si="13">E55+G55</f>
+        <f t="shared" ref="H55:H57" si="16">E55+G55</f>
         <v>0</v>
       </c>
       <c r="I55" s="1">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="6">
-        <f>(D55+B55)*1704</f>
+        <f t="shared" ref="J55:J86" si="17">(D55+B55)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -1890,15 +1890,15 @@
         <v>43770</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I56" s="1">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="6">
-        <f>(D56+B56)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1915,15 +1915,15 @@
         <v>43800</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I57" s="1">
@@ -1931,17 +1931,17 @@
         <v>0</v>
       </c>
       <c r="J57" s="6">
-        <f>(D57+B57)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D58" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H58" s="1"/>
@@ -1950,17 +1950,17 @@
         <v>0</v>
       </c>
       <c r="J58" s="6">
-        <f>(D58+B58)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D59" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H59" s="1"/>
@@ -1969,17 +1969,17 @@
         <v>0</v>
       </c>
       <c r="J59" s="6">
-        <f>(D59+B59)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H60" s="1"/>
@@ -1988,17 +1988,17 @@
         <v>0</v>
       </c>
       <c r="J60" s="6">
-        <f>(D60+B60)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H61" s="1"/>
@@ -2007,17 +2007,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="6">
-        <f>(D61+B61)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D62" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H62" s="1"/>
@@ -2026,17 +2026,17 @@
         <v>0</v>
       </c>
       <c r="J62" s="6">
-        <f>(D62+B62)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D63" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H63" s="1"/>
@@ -2045,17 +2045,17 @@
         <v>0</v>
       </c>
       <c r="J63" s="6">
-        <f>(D63+B63)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D64" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H64" s="1"/>
@@ -2064,17 +2064,17 @@
         <v>0</v>
       </c>
       <c r="J64" s="6">
-        <f>(D64+B64)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H65" s="1"/>
@@ -2083,17 +2083,17 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <f>(D65+B65)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D66" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H66" s="1"/>
@@ -2102,17 +2102,17 @@
         <v>0</v>
       </c>
       <c r="J66" s="6">
-        <f>(D66+B66)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D67" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H67" s="1"/>
@@ -2121,17 +2121,17 @@
         <v>0</v>
       </c>
       <c r="J67" s="6">
-        <f>(D67+B67)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D68" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H68" s="1"/>
@@ -2140,17 +2140,17 @@
         <v>0</v>
       </c>
       <c r="J68" s="6">
-        <f>(D68+B68)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D69" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H69" s="1"/>
@@ -2159,17 +2159,17 @@
         <v>0</v>
       </c>
       <c r="J69" s="6">
-        <f>(D69+B69)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H70" s="1"/>
@@ -2178,17 +2178,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="6">
-        <f>(D70+B70)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D71" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H71" s="1"/>
@@ -2197,17 +2197,17 @@
         <v>0</v>
       </c>
       <c r="J71" s="6">
-        <f>(D71+B71)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D72" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H72" s="1"/>
@@ -2216,17 +2216,17 @@
         <v>0</v>
       </c>
       <c r="J72" s="6">
-        <f>(D72+B72)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D73" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H73" s="1"/>
@@ -2235,17 +2235,17 @@
         <v>0</v>
       </c>
       <c r="J73" s="6">
-        <f>(D73+B73)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D74" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H74" s="1"/>
@@ -2254,17 +2254,17 @@
         <v>0</v>
       </c>
       <c r="J74" s="6">
-        <f>(D74+B74)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D75" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H75" s="1"/>
@@ -2273,17 +2273,17 @@
         <v>0</v>
       </c>
       <c r="J75" s="6">
-        <f>(D75+B75)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D76" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H76" s="1"/>
@@ -2292,17 +2292,17 @@
         <v>0</v>
       </c>
       <c r="J76" s="6">
-        <f>(D76+B76)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D77" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H77" s="1"/>
@@ -2311,17 +2311,17 @@
         <v>0</v>
       </c>
       <c r="J77" s="6">
-        <f>(D77+B77)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D78" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H78" s="1"/>
@@ -2330,17 +2330,17 @@
         <v>0</v>
       </c>
       <c r="J78" s="6">
-        <f>(D78+B78)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D79" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H79" s="1"/>
@@ -2349,17 +2349,17 @@
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <f>(D79+B79)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D80" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H80" s="1"/>
@@ -2368,17 +2368,17 @@
         <v>0</v>
       </c>
       <c r="J80" s="6">
-        <f>(D80+B80)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D81" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H81" s="1"/>
@@ -2387,17 +2387,17 @@
         <v>0</v>
       </c>
       <c r="J81" s="6">
-        <f>(D81+B81)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D82" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H82" s="1"/>
@@ -2406,17 +2406,17 @@
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <f>(D82+B82)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D83" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H83" s="1"/>
@@ -2425,17 +2425,17 @@
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f>(D83+B83)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D84" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H84" s="1"/>
@@ -2444,17 +2444,17 @@
         <v>0</v>
       </c>
       <c r="J84" s="6">
-        <f>(D84+B84)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D85" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H85" s="1"/>
@@ -2463,17 +2463,17 @@
         <v>0</v>
       </c>
       <c r="J85" s="6">
-        <f>(D85+B85)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D86" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H86" s="1"/>
@@ -2482,17 +2482,17 @@
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <f>(D86+B86)*1704</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D87" s="1">
-        <f t="shared" ref="D87:D118" si="14">C87/60</f>
+        <f t="shared" ref="D87:D118" si="18">C87/60</f>
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H87" s="1"/>
@@ -2501,17 +2501,17 @@
         <v>0</v>
       </c>
       <c r="J87" s="6">
-        <f>(D87+B87)*1704</f>
+        <f t="shared" ref="J87:J118" si="19">(D87+B87)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D88" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H88" s="1"/>
@@ -2520,17 +2520,17 @@
         <v>0</v>
       </c>
       <c r="J88" s="6">
-        <f>(D88+B88)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D89" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H89" s="1"/>
@@ -2539,17 +2539,17 @@
         <v>0</v>
       </c>
       <c r="J89" s="6">
-        <f>(D89+B89)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D90" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H90" s="1"/>
@@ -2558,17 +2558,17 @@
         <v>0</v>
       </c>
       <c r="J90" s="6">
-        <f>(D90+B90)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D91" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H91" s="1"/>
@@ -2577,17 +2577,17 @@
         <v>0</v>
       </c>
       <c r="J91" s="6">
-        <f>(D91+B91)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D92" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H92" s="1"/>
@@ -2596,17 +2596,17 @@
         <v>0</v>
       </c>
       <c r="J92" s="6">
-        <f>(D92+B92)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D93" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H93" s="1"/>
@@ -2615,17 +2615,17 @@
         <v>0</v>
       </c>
       <c r="J93" s="6">
-        <f>(D93+B93)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D94" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H94" s="1"/>
@@ -2634,17 +2634,17 @@
         <v>0</v>
       </c>
       <c r="J94" s="6">
-        <f>(D94+B94)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D95" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H95" s="1"/>
@@ -2653,17 +2653,17 @@
         <v>0</v>
       </c>
       <c r="J95" s="6">
-        <f>(D95+B95)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D96" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H96" s="1"/>
@@ -2672,17 +2672,17 @@
         <v>0</v>
       </c>
       <c r="J96" s="6">
-        <f>(D96+B96)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D97" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H97" s="1"/>
@@ -2691,17 +2691,17 @@
         <v>0</v>
       </c>
       <c r="J97" s="6">
-        <f>(D97+B97)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D98" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H98" s="1"/>
@@ -2710,17 +2710,17 @@
         <v>0</v>
       </c>
       <c r="J98" s="6">
-        <f>(D98+B98)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D99" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H99" s="1"/>
@@ -2729,17 +2729,17 @@
         <v>0</v>
       </c>
       <c r="J99" s="6">
-        <f>(D99+B99)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D100" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H100" s="1"/>
@@ -2748,17 +2748,17 @@
         <v>0</v>
       </c>
       <c r="J100" s="6">
-        <f>(D100+B100)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D101" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H101" s="1"/>
@@ -2767,17 +2767,17 @@
         <v>0</v>
       </c>
       <c r="J101" s="6">
-        <f>(D101+B101)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D102" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H102" s="1"/>
@@ -2786,17 +2786,17 @@
         <v>0</v>
       </c>
       <c r="J102" s="6">
-        <f>(D102+B102)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D103" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H103" s="1"/>
@@ -2805,17 +2805,17 @@
         <v>0</v>
       </c>
       <c r="J103" s="6">
-        <f>(D103+B103)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D104" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H104" s="1"/>
@@ -2824,17 +2824,17 @@
         <v>0</v>
       </c>
       <c r="J104" s="6">
-        <f>(D104+B104)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D105" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H105" s="1"/>
@@ -2843,17 +2843,17 @@
         <v>0</v>
       </c>
       <c r="J105" s="6">
-        <f>(D105+B105)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D106" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H106" s="1"/>
@@ -2862,17 +2862,17 @@
         <v>0</v>
       </c>
       <c r="J106" s="6">
-        <f>(D106+B106)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D107" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H107" s="1"/>
@@ -2881,17 +2881,17 @@
         <v>0</v>
       </c>
       <c r="J107" s="6">
-        <f>(D107+B107)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D108" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H108" s="1"/>
@@ -2900,17 +2900,17 @@
         <v>0</v>
       </c>
       <c r="J108" s="6">
-        <f>(D108+B108)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D109" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H109" s="1"/>
@@ -2919,17 +2919,17 @@
         <v>0</v>
       </c>
       <c r="J109" s="6">
-        <f>(D109+B109)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D110" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H110" s="1"/>
@@ -2938,17 +2938,17 @@
         <v>0</v>
       </c>
       <c r="J110" s="6">
-        <f>(D110+B110)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D111" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H111" s="1"/>
@@ -2957,623 +2957,623 @@
         <v>0</v>
       </c>
       <c r="J111" s="6">
-        <f>(D111+B111)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J112" s="6">
-        <f>(D112+B112)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J113" s="6">
-        <f>(D113+B113)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J114" s="6">
-        <f>(D114+B114)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J115" s="6">
-        <f>(D115+B115)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J116" s="6">
-        <f>(D116+B116)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J117" s="6">
-        <f>(D117+B117)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J118" s="6">
-        <f>(D118+B118)*1704</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D119">
-        <f t="shared" ref="D119:D150" si="15">C119/60</f>
+        <f t="shared" ref="D119:D150" si="20">C119/60</f>
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" ref="G119:G155" si="16">F119/60</f>
+        <f t="shared" ref="G119:G155" si="21">F119/60</f>
         <v>0</v>
       </c>
       <c r="J119" s="6">
-        <f>(D119+B119)*1704</f>
+        <f t="shared" ref="J119:J131" si="22">(D119+B119)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J120" s="6">
-        <f>(D120+B120)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J121" s="6">
-        <f>(D121+B121)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J122" s="6">
-        <f>(D122+B122)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J123" s="6">
-        <f>(D123+B123)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J124" s="6">
-        <f>(D124+B124)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J125" s="6">
-        <f>(D125+B125)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J126" s="6">
-        <f>(D126+B126)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J127" s="6">
-        <f>(D127+B127)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J128" s="6">
-        <f>(D128+B128)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J129" s="6">
-        <f>(D129+B129)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J130" s="6">
-        <f>(D130+B130)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J131" s="6">
-        <f>(D131+B131)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J132" s="6">
-        <f t="shared" ref="J132:J155" si="17">(D132+B132)*1704</f>
+        <f t="shared" ref="J132:J155" si="23">(D132+B132)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G133">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J133" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G134">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J134" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G135">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J135" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G136">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G137">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J137" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G138">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J138" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G139">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J139" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G140">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J140" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G141">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J141" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G142">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J142" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G143">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J143" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J144" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J145" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J146" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J148" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J150" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D151">
-        <f t="shared" ref="D151:D155" si="18">C151/60</f>
+        <f t="shared" ref="D151:D155" si="24">C151/60</f>
         <v>0</v>
       </c>
       <c r="G151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J152" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D153">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G153">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J153" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D154">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G154">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J154" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D155">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J155" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>

--- a/残業.xlsx
+++ b/残業.xlsx
@@ -835,14 +835,14 @@
         <v>42552</v>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -856,15 +856,15 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>26.933333333333334</v>
+        <v>29.566666666666666</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>158.51666666666668</v>
+        <v>161.15</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>48978.641666666677</v>
+        <v>53668.608333333337</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -885,7 +885,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>158.51666666666668</v>
+        <v>161.15</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="3"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>158.51666666666668</v>
+        <v>161.15</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="3"/>
@@ -925,7 +925,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="6">
         <f>SUM(J2:J13)</f>
-        <v>283728.14166666666</v>
+        <v>288418.10833333334</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">

--- a/残業.xlsx
+++ b/残業.xlsx
@@ -85,14 +85,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -100,7 +100,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,36 +835,36 @@
         <v>42552</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.15</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>29.566666666666666</v>
+        <v>34.15</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>161.15</v>
+        <v>165.73333333333335</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>53668.608333333337</v>
+        <v>62373.816666666658</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -885,7 +885,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>161.15</v>
+        <v>165.73333333333335</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="3"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>161.15</v>
+        <v>165.73333333333335</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="3"/>
@@ -925,7 +925,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="6">
         <f>SUM(J2:J13)</f>
-        <v>288418.10833333334</v>
+        <v>297123.31666666665</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
